--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4342948A-B29E-F648-BDB4-16A19DC253F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453128C1-028C-3547-A23E-F3601E313874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="500" windowWidth="19840" windowHeight="14920" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-21" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -60,26 +60,137 @@
     <t>BAC-21 Catálogo de decisiones estratégicas (propuesta de valor)</t>
   </si>
   <si>
-    <t>Establecer nuevas alianzas con proveedores en aras de ampliar el catalogo de productos</t>
-  </si>
-  <si>
-    <t>Abrir nuevos puntos de venta a nivel nacional</t>
-  </si>
-  <si>
-    <t>Desarrollar actividades de responsabilidad ambiental</t>
-  </si>
-  <si>
-    <t>Hacer promociones de productos disminuyendo los precios si se compran en paquete</t>
-  </si>
-  <si>
-    <t>Hacer campañas de publicidad hacia prospectos de clientes</t>
+    <t>Establecer nuevas alianzas con proveedores</t>
+  </si>
+  <si>
+    <t>Nuestro catálogo debe ser más amplio y actuar con base en la demanda</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>Debemos abrir nuevos puntos de venta a nivel nacional</t>
+  </si>
+  <si>
+    <t>Estudio de mercado</t>
+  </si>
+  <si>
+    <t>Optimización de procesos de importación</t>
+  </si>
+  <si>
+    <t>Negocio</t>
+  </si>
+  <si>
+    <t>&gt; encuestas, análisis de ventas, análisis de peticiones ? Del cliente</t>
+  </si>
+  <si>
+    <t>Estudio de mercado, enfocado a la ubicación de nuestros clientes</t>
+  </si>
+  <si>
+    <t>&gt; lo que dijo jorge de llevar a bogota</t>
+  </si>
+  <si>
+    <t>&gt; preguntarle a los clientes de donde vienen, preguntar en que lugar tendríamos buen recibimiento</t>
+  </si>
+  <si>
+    <t>Publicitarnos en los nuevos puntos de venta</t>
+  </si>
+  <si>
+    <t>Logística de aprovisionamiento</t>
+  </si>
+  <si>
+    <t>Financiero</t>
+  </si>
+  <si>
+    <t>Buscar arriendos en lugares reconocibles y frecuentados</t>
+  </si>
+  <si>
+    <t>&gt; arrendar en centros comerciales y en lugares exclusivos primero, inversion en empleados y overall buena presencia de nuestro establecimiento</t>
+  </si>
+  <si>
+    <t>Nuestra marca debe ser amigable con el cliente</t>
+  </si>
+  <si>
+    <t>Buscar metodologías amigables con el medio ambiente y visibilizarlas</t>
+  </si>
+  <si>
+    <t>Cuidar la imagen y buen estado de nuestros locales</t>
+  </si>
+  <si>
+    <t>&gt; contratar servicios de limpieza, contratar un diseñador que nos oriente a tener un ambiente agradable para las ventas?</t>
+  </si>
+  <si>
+    <t>Tener una estrategia de mercado orientada a hacer sentir al cliente cómodo</t>
+  </si>
+  <si>
+    <t>&gt; tener un asesor que  asesoria de imagen, empleados vestidos elegantes para mostrar imagen institucional</t>
+  </si>
+  <si>
+    <t>&gt; Segmentar el mercado de acuerdo con nuestros estudios para tener una mejor cercanía, mejor lenguaje, buscar qué es trendy</t>
+  </si>
+  <si>
+    <t>Estratégico</t>
+  </si>
+  <si>
+    <t>&gt; no estar atado a solo comprarle un proveedor</t>
+  </si>
+  <si>
+    <t>No tener ninguna afiliación de compromiso con ningún proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comprar al por mayor sino de acuerdo a la demanda, </t>
+  </si>
+  <si>
+    <t>Estrategico</t>
+  </si>
+  <si>
+    <t>Estratético</t>
+  </si>
+  <si>
+    <t>Buscar medios para generar cercanía con el cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +210,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -114,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -175,23 +291,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,6 +342,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,42 +684,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="56.5" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -579,199 +736,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="F14" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453128C1-028C-3547-A23E-F3601E313874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217520F-AA99-2643-BB47-FF7579683DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -177,13 +177,13 @@
     <t xml:space="preserve">No comprar al por mayor sino de acuerdo a la demanda, </t>
   </si>
   <si>
-    <t>Estrategico</t>
-  </si>
-  <si>
-    <t>Estratético</t>
-  </si>
-  <si>
     <t>Buscar medios para generar cercanía con el cliente</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>Buscar que nuestros empleados siempre estén contentos de trabajar con nosotros</t>
   </si>
 </sst>
 </file>
@@ -291,15 +291,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -317,11 +308,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,41 +338,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +688,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -737,10 +738,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -752,8 +753,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -768,8 +769,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -781,8 +782,8 @@
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -794,8 +795,8 @@
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -805,15 +806,15 @@
         <v>45</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -828,8 +829,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -844,8 +845,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -857,8 +858,8 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -868,18 +869,18 @@
         <v>34</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -891,8 +892,8 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -907,8 +908,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -923,104 +924,103 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A15:A18"/>
+  <mergeCells count="4">
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F217520F-AA99-2643-BB47-FF7579683DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D131CCE3-E024-B040-8AB1-3778B4FF73F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-21" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Debemos abrir nuevos puntos de venta a nivel nacional</t>
   </si>
   <si>
-    <t>Estudio de mercado</t>
-  </si>
-  <si>
     <t>Optimización de procesos de importación</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>No tener ninguna afiliación de compromiso con ningún proveedor</t>
   </si>
   <si>
-    <t xml:space="preserve">No comprar al por mayor sino de acuerdo a la demanda, </t>
-  </si>
-  <si>
     <t>Buscar medios para generar cercanía con el cliente</t>
   </si>
   <si>
@@ -184,6 +178,30 @@
   </si>
   <si>
     <t>Buscar que nuestros empleados siempre estén contentos de trabajar con nosotros</t>
+  </si>
+  <si>
+    <t>Constante estudio de mercado</t>
+  </si>
+  <si>
+    <t>&gt; no se reciben pedidos entre semana, solo los fines de semana en la mañana que no hay clientes. La logística de entrada toma el mínimo tiempo posible</t>
+  </si>
+  <si>
+    <t>&gt; tener un asesor comercial que se encargue de buscr las mejores alianzas con los proveedores</t>
+  </si>
+  <si>
+    <t>No comprar al por mayor sino de acuerdo a la demanda.</t>
+  </si>
+  <si>
+    <t>&gt; el asesor comercial que se encarga de comprar también se encarga de hacer estudios constantes de demanda para saber qué comprar y qué tanto vende</t>
+  </si>
+  <si>
+    <t>&gt; contratar campañas publicitarias por internet</t>
+  </si>
+  <si>
+    <t>&gt; hacer campañas de reciclar las monturas utilizadas por un descuento en la siguiente compra</t>
+  </si>
+  <si>
+    <t>&gt; afiliar a los empleados a cajas de compensacion para que tengan todos los beneficios, que estén contratados por contrato laboral para tener prestaciones, salud; generar incentivos por ventas</t>
   </si>
 </sst>
 </file>
@@ -356,6 +374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -367,9 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -738,219 +756,237 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="F6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5"/>
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5"/>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
+      <c r="A15" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5"/>
+      <c r="F15" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>49</v>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="7"/>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -981,35 +1017,35 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>

--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D131CCE3-E024-B040-8AB1-3778B4FF73F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023DFA76-2C75-CA42-8A84-1B0C3940059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -114,18 +114,9 @@
     <t>Negocio</t>
   </si>
   <si>
-    <t>&gt; encuestas, análisis de ventas, análisis de peticiones ? Del cliente</t>
-  </si>
-  <si>
     <t>Estudio de mercado, enfocado a la ubicación de nuestros clientes</t>
   </si>
   <si>
-    <t>&gt; lo que dijo jorge de llevar a bogota</t>
-  </si>
-  <si>
-    <t>&gt; preguntarle a los clientes de donde vienen, preguntar en que lugar tendríamos buen recibimiento</t>
-  </si>
-  <si>
     <t>Publicitarnos en los nuevos puntos de venta</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>Buscar arriendos en lugares reconocibles y frecuentados</t>
   </si>
   <si>
-    <t>&gt; arrendar en centros comerciales y en lugares exclusivos primero, inversion en empleados y overall buena presencia de nuestro establecimiento</t>
-  </si>
-  <si>
     <t>Nuestra marca debe ser amigable con el cliente</t>
   </si>
   <si>
@@ -150,24 +138,12 @@
     <t>Cuidar la imagen y buen estado de nuestros locales</t>
   </si>
   <si>
-    <t>&gt; contratar servicios de limpieza, contratar un diseñador que nos oriente a tener un ambiente agradable para las ventas?</t>
-  </si>
-  <si>
     <t>Tener una estrategia de mercado orientada a hacer sentir al cliente cómodo</t>
   </si>
   <si>
-    <t>&gt; tener un asesor que  asesoria de imagen, empleados vestidos elegantes para mostrar imagen institucional</t>
-  </si>
-  <si>
-    <t>&gt; Segmentar el mercado de acuerdo con nuestros estudios para tener una mejor cercanía, mejor lenguaje, buscar qué es trendy</t>
-  </si>
-  <si>
     <t>Estratégico</t>
   </si>
   <si>
-    <t>&gt; no estar atado a solo comprarle un proveedor</t>
-  </si>
-  <si>
     <t>No tener ninguna afiliación de compromiso con ningún proveedor</t>
   </si>
   <si>
@@ -183,25 +159,16 @@
     <t>Constante estudio de mercado</t>
   </si>
   <si>
-    <t>&gt; no se reciben pedidos entre semana, solo los fines de semana en la mañana que no hay clientes. La logística de entrada toma el mínimo tiempo posible</t>
-  </si>
-  <si>
-    <t>&gt; tener un asesor comercial que se encargue de buscr las mejores alianzas con los proveedores</t>
-  </si>
-  <si>
     <t>No comprar al por mayor sino de acuerdo a la demanda.</t>
   </si>
   <si>
-    <t>&gt; el asesor comercial que se encarga de comprar también se encarga de hacer estudios constantes de demanda para saber qué comprar y qué tanto vende</t>
-  </si>
-  <si>
-    <t>&gt; contratar campañas publicitarias por internet</t>
-  </si>
-  <si>
-    <t>&gt; hacer campañas de reciclar las monturas utilizadas por un descuento en la siguiente compra</t>
-  </si>
-  <si>
-    <t>&gt; afiliar a los empleados a cajas de compensacion para que tengan todos los beneficios, que estén contratados por contrato laboral para tener prestaciones, salud; generar incentivos por ventas</t>
+    <t>En la búsqueda constante de mejorar nuestro catálogo y ajustarnos mejor a la demanda, es necesario que forjemos alianzas con los proveedores que nos permitan tener siempre el catálogo más actualizado y que nos provea de la mayor utilidad posible. En estas nuevas alianzas no pueden haber contratos de fidelidad ni exclusividad, porque dependemos del mercado</t>
+  </si>
+  <si>
+    <t>La empresa debe buscar siempre las últimas tendencias de mercado haciendo estudios constantes con otras empresas; o utilizando nuestro software contable haciendo inteligencia de negocios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los procesos de importación deben ser los más óptimos posibles. La distribución de los proveedores es centralizada, es decir, entra a bogotá y luego se dirige a los </t>
   </si>
 </sst>
 </file>
@@ -248,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -318,15 +285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -343,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,15 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -386,8 +338,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -754,9 +711,13 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -768,29 +729,35 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="E6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -800,29 +767,33 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -830,33 +801,35 @@
         <v>25</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -864,188 +837,174 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
-        <v>35</v>
+      <c r="A15" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
       <c r="B19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>

--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023DFA76-2C75-CA42-8A84-1B0C3940059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE809E-03EC-3941-B11F-AC6596D99CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,11 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -662,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -711,13 +707,10 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -733,12 +726,9 @@
         <v>42</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -751,13 +741,10 @@
       <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -771,12 +758,9 @@
         <v>44</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -788,12 +772,9 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -805,12 +786,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -823,13 +801,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -840,13 +815,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -858,12 +830,9 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -875,12 +844,12 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -896,7 +865,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
@@ -909,7 +878,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -922,7 +891,7 @@
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
@@ -935,7 +904,7 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="7" t="s">
         <v>38</v>
       </c>
@@ -976,35 +945,35 @@
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>

--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE809E-03EC-3941-B11F-AC6596D99CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DB505-7AF2-ED47-9457-67209FE46D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-21" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -168,7 +168,40 @@
     <t>La empresa debe buscar siempre las últimas tendencias de mercado haciendo estudios constantes con otras empresas; o utilizando nuestro software contable haciendo inteligencia de negocios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Los procesos de importación deben ser los más óptimos posibles. La distribución de los proveedores es centralizada, es decir, entra a bogotá y luego se dirige a los </t>
+    <t>En búsqueda de tener siempre un catálogo actualizado y que se ajuste a la demanda, las compras por referencia se hacen medidas en un principio y luego se aumentan por popularidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los procesos de importación deben ser los más óptimos posibles. </t>
+  </si>
+  <si>
+    <t>La apertura de puntos de venta está acompañada de publicidad que nos diferencie en el nuevo lugar donde nos establezcamos.</t>
+  </si>
+  <si>
+    <t>La apertura de puntos de venta debe ser en lugares frecuentados y reconocidos, para que nuestra marca sea identificable y tengamos un flujo de clientes más alto. Estos locales pueden ser dentro de centros comerciales en la medida de lo posible</t>
+  </si>
+  <si>
+    <t>Dentro de nuestro modelo motivacional está el componente de responsabilidad ambiental, y queremos trabajar por conseguirlo. Para esto vamos a contar con programas de reciclaje.</t>
+  </si>
+  <si>
+    <t>La empresa se debe mostrar siempre amigable con el cliente, dirigiéndose con lenguaje coloquial que permita cercanía con el mismo. El lenguaje que se utilice es determinado por el segmento de cliente que veamos es más amplio dentro de la organización.</t>
+  </si>
+  <si>
+    <t>Se debe hacer un estudio del mercado para saber dónde nuestra presencia puede ser importante. Sin embargo, los puntos de venta nuevos funcionarán como "prueba y error", dado que si un local no produce como esperado se estudia una posible reubicación.</t>
+  </si>
+  <si>
+    <t>En aras de tener siempre un catálogo nuevo, la rotación de productos debe ser alta luego no se deben tener contratos de exclusividad que impliquen tener que vender cierta cantidad de determinada referencia.</t>
+  </si>
+  <si>
+    <t>La distribución de los canales de aprovisionamiento es centralizada, es decir, entra a la bodega en Bogotá y luego se dirige a los demás puntos de venta</t>
+  </si>
+  <si>
+    <t>La empresa se debe mostrar formal y comprometida con el cliente, luego la buena imagen de nuestros locales permite la seguridad del cliente.</t>
+  </si>
+  <si>
+    <t>La empresa debe conectar con el cliente de forma que se muestre interesada por su bienestar, tal que se asegure de que está comprando el mejor producto</t>
+  </si>
+  <si>
+    <t>La empresa debe velar por la integridad de los empleados, teniendo en cuenta todas las labores que desempeñan se les otorgarán beneficios como cajas de compensación y afiliaciones obligatorias dentro de un contrato laboral. Todo empleado será contratado mediante contrato laboral.</t>
   </si>
 </sst>
 </file>
@@ -658,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="98" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -668,7 +701,7 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -722,7 +755,7 @@
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="9"/>
@@ -738,7 +771,7 @@
       <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="11"/>
@@ -754,8 +787,8 @@
       <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -770,7 +803,9 @@
       <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.15">
@@ -784,7 +819,9 @@
       <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.15">
@@ -800,7 +837,9 @@
       <c r="D11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.15">
@@ -814,7 +853,9 @@
       <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.15">
@@ -828,10 +869,12 @@
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -842,7 +885,9 @@
       <c r="D14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="9"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -861,7 +906,9 @@
       <c r="D15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.15">
@@ -875,7 +922,9 @@
       <c r="D16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
@@ -888,7 +937,9 @@
       <c r="D17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
@@ -901,7 +952,9 @@
       <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -914,7 +967,9 @@
       <c r="D19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>

--- a/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
+++ b/HT-6/Optica BAC-21-Catálogo de decisiones estratégicas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4DB505-7AF2-ED47-9457-67209FE46D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CF034-1417-A74A-840D-0ED682709EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-6780" windowWidth="38400" windowHeight="21100" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,45 @@
   </si>
   <si>
     <t>La empresa debe velar por la integridad de los empleados, teniendo en cuenta todas las labores que desempeñan se les otorgarán beneficios como cajas de compensación y afiliaciones obligatorias dentro de un contrato laboral. Todo empleado será contratado mediante contrato laboral.</t>
+  </si>
+  <si>
+    <t>Debemos ampliar nuestros canales de distribución para incluir canales digitales</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>Abrir un nuevo canal de relacionamiento digital con el cliente</t>
+  </si>
+  <si>
+    <t>Abrir un nuevo canal de distribución a domicilio</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>Buscar mantener un sistema informático que permita la venta online de nuestros productos</t>
+  </si>
+  <si>
+    <t>Mediante una plataforma tipo marketplace, la empresa debe comercializar todos los productos que tiene disponibles. Esto con el fin de maximizar las ventas</t>
+  </si>
+  <si>
+    <t>La empresa debe empezar a relacionarse con el cliente digital, para poder exponer todos los productos de forma que las transacciones online sean una parte importante de las ventas</t>
+  </si>
+  <si>
+    <t>La empresa debe encargarse de conseguir un intermediario que realice los envíos de los pedidos</t>
+  </si>
+  <si>
+    <t>Certificación de calidad de productos transformados</t>
+  </si>
+  <si>
+    <t>La empresa debe certificar que los pedidos se realicen cumplan los estándares de calidad de un producto físico, sin necesidad de revisión manual de cada producto. Es decir, la empresa solo será un intermediario entre los proveedores y los clientes, ganando una comisión por ventas en línea.</t>
+  </si>
+  <si>
+    <t>D18</t>
   </si>
 </sst>
 </file>
@@ -334,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,6 +412,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -971,36 +1013,70 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1034,12 +1110,20 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
